--- a/hello.xlsx
+++ b/hello.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -20,12 +20,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t xml:space="preserve">Names</t>
   </si>
   <si>
     <t xml:space="preserve">Favorite Color</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salary</t>
   </si>
   <si>
     <t xml:space="preserve">John</t>
@@ -94,6 +97,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -153,8 +157,20 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -281,92 +297,122 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>100000</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>200000</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>40000</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="3" t="n">
+        <v>50000</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="3" t="n">
+        <v>40000</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="3" t="n">
+        <v>20000</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="B8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="3" t="n">
+        <v>55000</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="B9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="3" t="n">
+        <v>200000</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>19</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="3" t="n">
+        <v>300000</v>
       </c>
     </row>
   </sheetData>
